--- a/metashark/2022-11-11-report.xlsx
+++ b/metashark/2022-11-11-report.xlsx
@@ -51,12 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,60 +456,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Роман Иксанов</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>МАТЕМАТИКА И МЕХАНИКА</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Математика</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Прикладная математика и информатика</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Иван Иванов</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>НАУКИ О ЗЕМЛЕ</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Геология</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>География</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -524,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,17 +500,6 @@
         <is>
           <t>Список студентов</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
